--- a/related-products.xlsx
+++ b/related-products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AOC-DEV 2\AppData\Local\Temp\2c7e2dd3-5ebc-4e77-ba28-452f6317efa9\dav\content\related_products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA154E5D-6328-4562-9655-2CB7269FDFB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163AAA29-8624-4EF2-AC93-F4BCD5E15701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8B31F08D-5102-48F2-9BBC-FE72A4D561EB}"/>
+    <workbookView xWindow="23535" yWindow="495" windowWidth="25680" windowHeight="7140" xr2:uid="{8B31F08D-5102-48F2-9BBC-FE72A4D561EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <t>add related products</t>
   </si>
   <si>
-    <t>NOTES:  to delete related product just put 0 in cell</t>
+    <t>NOTES:  if no related product please set to  0 and if  automatic add related products please set to    -1</t>
   </si>
 </sst>
 </file>
@@ -396,14 +396,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.42578125" customWidth="1"/>
     <col min="2" max="2" width="40.42578125" customWidth="1"/>
-    <col min="3" max="3" width="64.140625" customWidth="1"/>
+    <col min="3" max="3" width="99.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -422,7 +422,7 @@
         <v>128</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
